--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1702,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1737,28 +1749,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1795,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1933,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1968,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2730,10 +2742,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2777,28 +2789,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2823,28 +2835,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2961,10 +2973,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3008,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3054,28 +3066,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3192,10 +3204,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3239,28 +3251,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3285,28 +3297,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3452,10 +3464,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3499,28 +3511,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3545,28 +3557,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3712,10 +3724,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3759,28 +3771,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3805,28 +3817,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3972,10 +3984,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4019,28 +4031,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4065,28 +4077,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4232,10 +4244,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4279,28 +4291,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4325,28 +4337,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4492,10 +4504,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4539,28 +4551,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4585,28 +4597,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4752,10 +4764,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4799,28 +4811,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4845,28 +4857,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4983,10 +4995,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5030,28 +5042,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5076,28 +5088,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5272,10 +5284,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5319,28 +5331,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5365,28 +5377,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5503,10 +5515,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5550,28 +5562,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5596,28 +5608,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5734,10 +5746,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5781,28 +5793,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5827,28 +5839,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5994,10 +6006,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6041,28 +6053,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6087,28 +6099,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6196,10 +6208,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6243,28 +6255,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6289,28 +6301,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6427,10 +6439,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6474,28 +6486,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6520,28 +6532,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6629,10 +6641,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6676,28 +6688,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6722,28 +6734,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6860,10 +6872,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6907,28 +6919,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6953,28 +6965,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7091,10 +7103,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
